--- a/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Advanced Course Files/Instructor Files/Section 3/03-01-two-way-lookups.xlsx
+++ b/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Advanced Course Files/Instructor Files/Section 3/03-01-two-way-lookups.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f21e54c367d3358c/Documents/01 Work Files/05 SSIT/Online Courses/Excel 2021 Advanced/Course Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git_Excel_Learning\normal\Excel 2021 Beginner to Advanced Course Files\Excel 2021 Advanced Course Files\Instructor Files\Section 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{A735E706-D5B5-47C9-ACFC-F2BF204507A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93E47E04-95BE-405E-92FE-10DB0D5F3577}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC7CFA31-1334-4BA2-9195-E1E1B97D29E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{F7C54BF8-C9F0-42E7-882B-0196C240C315}"/>
+    <workbookView xWindow="5868" yWindow="-24" windowWidth="17280" windowHeight="8880" xr2:uid="{F7C54BF8-C9F0-42E7-882B-0196C240C315}"/>
   </bookViews>
   <sheets>
     <sheet name="2-Way Lookups" sheetId="4" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="Company">Travel_Data[Company]</definedName>
+    <definedName name="data">Travel_Data[[Jan]:[Dec]]</definedName>
+    <definedName name="Month">Travel_Data[[#Headers],[Jan]:[Dec]]</definedName>
+  </definedNames>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,8 +38,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t>Company</t>
   </si>
@@ -97,6 +124,9 @@
   </si>
   <si>
     <t>Flight Shop</t>
+  </si>
+  <si>
+    <t>Transpose</t>
   </si>
 </sst>
 </file>
@@ -104,11 +134,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="\QGeneral"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,6 +164,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -155,7 +192,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -167,17 +204,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -203,9 +229,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -215,27 +239,334 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency 2" xfId="2" xr:uid="{0C0485B3-A66C-45F9-9272-3D9137A3AD9F}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{0E0C7AD2-232E-40D0-A584-26C8B9907C81}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="17">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -246,6 +577,42 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{12488C8D-1C07-4114-9231-9EE070EB90D8}" name="Travel_Data" displayName="Travel_Data" ref="A3:M11" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="15" tableBorderDxfId="16" headerRowCellStyle="Normal 2" dataCellStyle="Currency 2">
+  <autoFilter ref="A3:M11" xr:uid="{12488C8D-1C07-4114-9231-9EE070EB90D8}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+    <filterColumn colId="7" hiddenButton="1"/>
+    <filterColumn colId="8" hiddenButton="1"/>
+    <filterColumn colId="9" hiddenButton="1"/>
+    <filterColumn colId="10" hiddenButton="1"/>
+    <filterColumn colId="11" hiddenButton="1"/>
+    <filterColumn colId="12" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{A9A28A36-3645-4DF3-8ED6-AC48F9E0D5C5}" name="Company" dataDxfId="14" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{126892C1-8EDD-445F-84B9-B9D329F1BA04}" name="Jan" dataDxfId="13" dataCellStyle="Currency 2"/>
+    <tableColumn id="3" xr3:uid="{4C598BD6-EEB1-407B-83E2-E18239F24A6A}" name="Feb" dataDxfId="12" dataCellStyle="Currency 2"/>
+    <tableColumn id="4" xr3:uid="{4AA6B446-4DD8-4117-A390-642EF07BB8FC}" name="Mar" dataDxfId="11" dataCellStyle="Currency 2"/>
+    <tableColumn id="5" xr3:uid="{D220486B-31CA-4F8C-B5E0-B60589490480}" name="Apr" dataDxfId="10" dataCellStyle="Currency 2"/>
+    <tableColumn id="6" xr3:uid="{0F6DCA22-7606-4121-97E5-7600C2504755}" name="May" dataDxfId="9" dataCellStyle="Currency 2"/>
+    <tableColumn id="7" xr3:uid="{5B2C0370-DA17-40BC-B11D-A1D8E0684E42}" name="Jun" dataDxfId="8" dataCellStyle="Currency 2"/>
+    <tableColumn id="8" xr3:uid="{6BDE297A-DA6B-4CF3-B0EA-5F08017F777C}" name="Jul" dataDxfId="7" dataCellStyle="Currency 2"/>
+    <tableColumn id="9" xr3:uid="{913EC949-A98C-466B-A988-67C9E46C10D9}" name="Aug" dataDxfId="6" dataCellStyle="Currency 2"/>
+    <tableColumn id="10" xr3:uid="{DB3790E2-298A-46ED-9974-14DE816DB13A}" name="Sep" dataDxfId="5" dataCellStyle="Currency 2"/>
+    <tableColumn id="11" xr3:uid="{E56BFA06-AEA6-49BE-9A15-C3559EEB6FCE}" name="Oct" dataDxfId="4" dataCellStyle="Currency 2"/>
+    <tableColumn id="12" xr3:uid="{58181005-89B4-48D6-8DF6-F00D4F2F7979}" name="Nov" dataDxfId="3" dataCellStyle="Currency 2"/>
+    <tableColumn id="13" xr3:uid="{B81C3EEA-5990-4B51-92AE-D6D047B475CB}" name="Dec" dataDxfId="2" dataCellStyle="Currency 2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -506,20 +873,27 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A3:M14"/>
+  <dimension ref="A2:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.09765625" style="1" customWidth="1"/>
     <col min="2" max="13" width="10.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.796875" style="1"/>
+    <col min="14" max="14" width="8.796875" style="1"/>
+    <col min="15" max="15" width="15.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="21" x14ac:dyDescent="0.4">
+      <c r="O2" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -559,8 +933,15 @@
       <c r="M3" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="O3" s="1" t="str" cm="1">
+        <f t="array" ref="O3:O14">TRANSPOSE(Travel_Data[[#Headers],[Jan]:[Dec]])</f>
+        <v>Jan</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -600,8 +981,14 @@
       <c r="M4" s="2">
         <v>13192</v>
       </c>
+      <c r="O4" s="1" t="str">
+        <v>Feb</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -641,8 +1028,14 @@
       <c r="M5" s="2">
         <v>15044</v>
       </c>
+      <c r="O5" s="1" t="str">
+        <v>Mar</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -682,8 +1075,14 @@
       <c r="M6" s="2">
         <v>52373</v>
       </c>
+      <c r="O6" s="1" t="str">
+        <v>Apr</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -723,8 +1122,14 @@
       <c r="M7" s="2">
         <v>73200</v>
       </c>
+      <c r="O7" s="1" t="str">
+        <v>May</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -764,8 +1169,14 @@
       <c r="M8" s="2">
         <v>72694</v>
       </c>
+      <c r="O8" s="1" t="str">
+        <v>Jun</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -805,8 +1216,14 @@
       <c r="M9" s="2">
         <v>36238</v>
       </c>
+      <c r="O9" s="1" t="str">
+        <v>Jul</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -846,61 +1263,112 @@
       <c r="M10" s="2">
         <v>50269</v>
       </c>
+      <c r="O10" s="1" t="str">
+        <v>Aug</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="10">
         <v>32189</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="10">
         <v>46617</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="10">
         <v>40262</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="10">
         <v>17932</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="10">
         <v>35333</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="10">
         <v>44679</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="10">
         <v>35925</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="10">
         <v>20312</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="10">
         <v>56552</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="10">
         <v>10022</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="10">
         <v>67204</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11" s="10">
         <v>20708</v>
       </c>
+      <c r="O11" s="1" t="str">
+        <v>Sep</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="9" t="s">
-        <v>4</v>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O12" s="1" t="str">
+        <v>Oct</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="6"/>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="O13" s="1" t="str">
+        <v>Nov</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4">
+        <f>INDEX(data,MATCH(B13,Month,0),MATCH(A14,Company,0))</f>
+        <v>73467</v>
+      </c>
+      <c r="D14" s="1" cm="1">
+        <f t="array" ref="D14">_xlfn.XLOOKUP(B13,Month,_xlfn.XLOOKUP(A14,Company,data,"Not Found",0,1))</f>
+        <v>55882</v>
+      </c>
+      <c r="O14" s="1" t="str">
+        <v>Dec</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13" xr:uid="{C814A921-F9CF-4E65-A926-365337C3AEFB}">
+      <formula1>$P$3:$P$14</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A14" xr:uid="{7B86A191-1DF3-483B-B0FD-AF03088B0363}">
+      <formula1>$A$4:$A$11</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>